--- a/biology/Histoire de la zoologie et de la botanique/William_Homan_Thorpe/William_Homan_Thorpe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Homan_Thorpe/William_Homan_Thorpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Homan Thorpe est un zoologiste britannique, né le 1er avril 1902 et mort le 7 avril 1986.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il enseigne l’éthologie animale à l’université de Cambridge. Avec Nikolaas Tinbergen (1907-1988), Patrick Bateson (1938-) et Robert Hinde (1923-), il contribue au développement et à la popularisation de la biologie du comportement en Grande-Bretagne.
 Dans les années 1940, il utilise un spectrographe sonore pour analyser le chant des oiseaux. Il devient membre de la Royal Society en 1951. Il est le conférencier des conférences Gifford de 1969 à 1971.
